--- a/PL.xlsx
+++ b/PL.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="15">
   <si>
     <t xml:space="preserve">Semaine : </t>
   </si>
@@ -20,10 +20,10 @@
     <t>lundi</t>
   </si>
   <si>
-    <t>Sécurité - TP (KRTA9AA3) (PL)</t>
-  </si>
-  <si>
-    <t>KRTA9AA3</t>
+    <t>Sécurité - TP (KRTA9AA3/KUPT9BB1) (PL)</t>
+  </si>
+  <si>
+    <t>KRTA9AA3/KUPT9BB1</t>
   </si>
   <si>
     <t>PL</t>
@@ -47,10 +47,13 @@
     <t>vendredi</t>
   </si>
   <si>
-    <t>Sécurité (KRTA9AA3)</t>
+    <t>Sécurité (KRTA9AA3/KUPT9BB1)</t>
   </si>
   <si>
     <t>8:0</t>
+  </si>
+  <si>
+    <t>U3-Amphi</t>
   </si>
   <si>
     <t>TYPE_CONTROLE</t>
@@ -534,10 +537,12 @@
       <c r="E27" t="n" s="0">
         <v>4.0</v>
       </c>
-      <c r="F27" s="0"/>
+      <c r="F27" t="s" s="0">
+        <v>13</v>
+      </c>
       <c r="G27" s="0"/>
       <c r="H27" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I27" s="0"/>
     </row>
